--- a/src/main/resources/examples/施工扬尘源.xlsx
+++ b/src/main/resources/examples/施工扬尘源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_0F45AA0854C3786A3AD9C7B85CAAB0253C29634F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FF8FDCE-F0E8-424D-819F-F0E57754EF7A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_0F45AA0854C3786A3AD9C7B85CAAB0253C29634F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D36D09C-FD61-C54E-80A8-C291AE0A92F6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="施工扬尘" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>项目名称</t>
   </si>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>施工小时数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金融街（和平）中心</t>
   </si>
   <si>
@@ -76,34 +72,6 @@
   </si>
   <si>
     <t>采取的控制措施（请对照右侧黄色部分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM10的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX的最大控制率（%）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3的最大控制率（%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -215,6 +183,50 @@
       </rPr>
       <t>工类型</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3的最大控制率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25的最大控制率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC的最大控制率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC的最大控制率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +392,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,10 +408,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,131 +752,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29" defaultRowHeight="15.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.89453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1015625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.7890625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.89453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.89453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5234375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.68359375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.89453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.47265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="29" style="4"/>
+    <col min="3" max="3" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" style="4"/>
+    <col min="22" max="23" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="29" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.1" customHeight="1">
+    <row r="1" spans="1:33" ht="14" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="P1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="14.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:33" ht="14" customHeight="1">
       <c r="A2" s="2">
         <v>1603002004</v>
       </c>
@@ -866,13 +897,13 @@
         <v>650000</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="G2">
         <v>87.700934000000004</v>
@@ -880,26 +911,26 @@
       <c r="H2">
         <v>43.980694</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>47</v>
+      <c r="I2" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6">
         <v>23370</v>
       </c>
-      <c r="M2" s="6">
-        <v>12</v>
-      </c>
-      <c r="N2" s="13">
+      <c r="M2" s="13">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>32</v>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
       </c>
       <c r="P2" s="14">
         <v>0</v>
@@ -943,11 +974,20 @@
       <c r="AC2" s="14">
         <v>0</v>
       </c>
-      <c r="AD2" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="14" customHeight="1">
       <c r="A3" s="2">
         <v>1603002004</v>
       </c>
@@ -958,13 +998,13 @@
         <v>650100</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="G3">
         <v>87.700934000000004</v>
@@ -972,26 +1012,26 @@
       <c r="H3">
         <v>43.980694</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>47</v>
+      <c r="I3" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6">
         <v>15540</v>
       </c>
-      <c r="M3" s="6">
-        <v>12</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="M3" s="13">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
-        <v>32</v>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
       </c>
       <c r="P3" s="14">
         <v>0</v>
@@ -1035,11 +1075,20 @@
       <c r="AC3" s="14">
         <v>0</v>
       </c>
-      <c r="AD3" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="14" customHeight="1">
       <c r="A4" s="2">
         <v>1603002003</v>
       </c>
@@ -1050,13 +1099,13 @@
         <v>650102</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="G4">
         <v>87.700934000000004</v>
@@ -1064,26 +1113,26 @@
       <c r="H4">
         <v>43.980694</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>47</v>
+      <c r="I4" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L4" s="6">
         <v>900</v>
       </c>
-      <c r="M4" s="6">
-        <v>12</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="M4" s="13">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
-        <v>32</v>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
       </c>
       <c r="P4" s="14">
         <v>0</v>
@@ -1103,12 +1152,8 @@
       <c r="U4" s="14">
         <v>0</v>
       </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
       <c r="X4" s="14">
         <v>0</v>
       </c>
@@ -1127,11 +1172,20 @@
       <c r="AC4" s="14">
         <v>0</v>
       </c>
-      <c r="AD4" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="14" customHeight="1">
       <c r="A5" s="2">
         <v>1603002004</v>
       </c>
@@ -1142,13 +1196,13 @@
         <v>650103</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="G5">
         <v>87.700934000000004</v>
@@ -1156,26 +1210,26 @@
       <c r="H5">
         <v>43.980694</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>47</v>
+      <c r="I5" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L5" s="6">
         <v>19543</v>
       </c>
-      <c r="M5" s="6">
-        <v>12</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="M5" s="13">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
-        <v>32</v>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
       </c>
       <c r="P5" s="14">
         <v>0</v>
@@ -1195,12 +1249,8 @@
       <c r="U5" s="14">
         <v>0</v>
       </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="14">
         <v>0</v>
       </c>
@@ -1219,11 +1269,20 @@
       <c r="AC5" s="14">
         <v>0</v>
       </c>
-      <c r="AD5" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="14" customHeight="1">
       <c r="A6" s="2">
         <v>1603002004</v>
       </c>
@@ -1234,13 +1293,13 @@
         <v>650104</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G6">
         <v>87.700934000000004</v>
@@ -1248,26 +1307,26 @@
       <c r="H6">
         <v>43.980694</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>47</v>
+      <c r="I6" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L6" s="6">
         <v>24752</v>
       </c>
-      <c r="M6" s="6">
-        <v>12</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="M6" s="13">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
-        <v>32</v>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -1287,12 +1346,8 @@
       <c r="U6" s="14">
         <v>0</v>
       </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="14">
         <v>0</v>
       </c>
@@ -1311,11 +1366,20 @@
       <c r="AC6" s="14">
         <v>0</v>
       </c>
-      <c r="AD6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="14" customHeight="1">
       <c r="A7" s="2">
         <v>1603002005</v>
       </c>
@@ -1326,13 +1390,13 @@
         <v>650105</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G7">
         <v>87.804458999999994</v>
@@ -1340,26 +1404,26 @@
       <c r="H7">
         <v>44.034678999999997</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>47</v>
+      <c r="I7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L7" s="6">
         <v>10000</v>
       </c>
-      <c r="M7" s="6">
-        <v>12</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="M7" s="13">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
-        <v>32</v>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -1379,12 +1443,8 @@
       <c r="U7" s="14">
         <v>0</v>
       </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
-      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="14">
         <v>0</v>
       </c>
@@ -1403,33 +1463,45 @@
       <c r="AC7" s="14">
         <v>0</v>
       </c>
-      <c r="AD7" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="14" customHeight="1">
       <c r="A8" s="16">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8" s="16">
+      <c r="F8" s="16">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="16">
         <v>8</v>
       </c>
       <c r="J8" s="16">
@@ -1492,8 +1564,17 @@
       <c r="AC8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="14.1" customHeight="1">
+      <c r="AD8" s="16">
+        <v>29</v>
+      </c>
+      <c r="AE8">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="14" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1505,14 +1586,13 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="14.1" customHeight="1">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" ht="14" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1524,14 +1604,13 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="14.1" customHeight="1">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" ht="14" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1543,14 +1622,13 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="14.1" customHeight="1">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" ht="14" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1562,12 +1640,14 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="7"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="C13" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1583,188 +1663,188 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1781,7 +1861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
